--- a/module-02_rnd-governance/notebook_exports/hypothesis_test_results.xlsx
+++ b/module-02_rnd-governance/notebook_exports/hypothesis_test_results.xlsx
@@ -61,7 +61,7 @@
     <t>Significant</t>
   </si>
   <si>
-    <t>NOT SUPPORTED</t>
+    <t>NOT SUPPORTED (significant, but in the opposite direction)</t>
   </si>
   <si>
     <t>SUPPORTED</t>
